--- a/src/data/i18n/i18n.xlsx
+++ b/src/data/i18n/i18n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\YgkTool\src\data\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebApp\YgkTool\src\data\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD3F5E8-6D94-40FE-80FA-6371E3AC7F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA68D2C-43DD-47F6-B503-AABE8B3EBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,34 @@
   </si>
   <si>
     <t>Search (Ctrl+F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homePage.searchBarAriaLabel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fr-FR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜寻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在此键入以搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homePage.appSection.Media</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片视频</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,19 +420,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="40.58203125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="40.58203125" customWidth="1"/>
+    <col min="1" max="4" width="40.625" style="1" customWidth="1"/>
+    <col min="5" max="12" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -414,8 +442,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -425,134 +459,169 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/data/i18n/i18n.xlsx
+++ b/src/data/i18n/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\WebApp\YgkTool\src\data\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA68D2C-43DD-47F6-B503-AABE8B3EBD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EFBB9-457F-4943-B545-4399D9371207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,26 @@
   </si>
   <si>
     <t>图片视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homePage.meta.title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云极客工具，励志做最轻盈最好用的在线工具。以工匠精神打造功能丰富的在线工具，无需下载即可免费使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homePage.meta.description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +443,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,49 +471,59 @@
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -623,6 +653,9 @@
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
